--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43352,6 +43352,41 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43387,6 +43387,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43422,6 +43422,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43457,6 +43457,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43492,6 +43492,43 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43529,6 +43529,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43564,6 +43564,43 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43601,6 +43601,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43636,6 +43636,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>62500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43671,6 +43671,41 @@
         <v>62500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43706,6 +43706,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>4500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43741,6 +43741,78 @@
         <v>4500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>15600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43813,6 +43813,76 @@
         <v>15600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43883,6 +43883,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43918,6 +43918,43 @@
         <v>2700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43955,6 +43955,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43992,6 +43992,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>22900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44027,6 +44027,80 @@
         <v>22900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44101,6 +44101,43 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44138,6 +44138,41 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2036"/>
+  <dimension ref="A1:I2037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72278,6 +72278,43 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="2037">
+      <c r="A2037" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2037" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2037" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2037" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2037" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2037"/>
+  <dimension ref="A1:I2038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72315,6 +72315,43 @@
         </is>
       </c>
     </row>
+    <row r="2038">
+      <c r="A2038" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2038" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2038" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2038" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2038" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2038"/>
+  <dimension ref="A1:I2039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72352,6 +72352,43 @@
         </is>
       </c>
     </row>
+    <row r="2039">
+      <c r="A2039" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2039" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2039" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2039" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2039" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2039"/>
+  <dimension ref="A1:I2040"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72389,6 +72389,43 @@
         </is>
       </c>
     </row>
+    <row r="2040">
+      <c r="A2040" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2040" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2040" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2040" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2040" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2040"/>
+  <dimension ref="A1:I2041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72426,6 +72426,43 @@
         </is>
       </c>
     </row>
+    <row r="2041">
+      <c r="A2041" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2041" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2041" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2041" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2041"/>
+  <dimension ref="A1:I2042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72463,6 +72463,43 @@
         </is>
       </c>
     </row>
+    <row r="2042">
+      <c r="A2042" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2042" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2042" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2042" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2042"/>
+  <dimension ref="A1:I2043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72500,6 +72500,43 @@
         </is>
       </c>
     </row>
+    <row r="2043">
+      <c r="A2043" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2043" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2043" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2043" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2043" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2043"/>
+  <dimension ref="A1:I2044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72537,6 +72537,41 @@
         </is>
       </c>
     </row>
+    <row r="2044">
+      <c r="A2044" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2044" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G2044" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H2044" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I2044" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2044"/>
+  <dimension ref="A1:I2045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72572,6 +72572,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2045">
+      <c r="A2045" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2045" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G2045" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H2045" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I2045" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2045"/>
+  <dimension ref="A1:I2046"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72609,6 +72609,41 @@
         </is>
       </c>
     </row>
+    <row r="2046">
+      <c r="A2046" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2046" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="G2046" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2046" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I2046" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2046"/>
+  <dimension ref="A1:I2047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72644,6 +72644,43 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="2047">
+      <c r="A2047" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2047" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="G2047" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="H2047" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I2047" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2047"/>
+  <dimension ref="A1:I2048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72681,6 +72681,41 @@
         </is>
       </c>
     </row>
+    <row r="2048">
+      <c r="A2048" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2048" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2048" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H2048" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2048" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2048"/>
+  <dimension ref="A1:I2049"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72716,6 +72716,43 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="2049">
+      <c r="A2049" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2049" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2049" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2049" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2049" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2049"/>
+  <dimension ref="A1:I2050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72753,6 +72753,43 @@
         </is>
       </c>
     </row>
+    <row r="2050">
+      <c r="A2050" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2050" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2050" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2050" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2050" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9199.xlsx
+++ b/data/9199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2050"/>
+  <dimension ref="A1:I2051"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72790,6 +72790,43 @@
         </is>
       </c>
     </row>
+    <row r="2051">
+      <c r="A2051" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>LYSAGHT</t>
+        </is>
+      </c>
+      <c r="E2051" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2051" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2051" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2051" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
